--- a/8. Harmonising standards/Create a project/Project documentation/Template Project Documentation 1.0.xlsx
+++ b/8. Harmonising standards/Create a project/Project documentation/Template Project Documentation 1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87757A68-AA75-49BC-B29A-4540EE69DBE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886F5F4D-9EF0-4ED8-B0CA-A69DB3243413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="4725" tabRatio="837" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="186">
   <si>
     <t>SAXESS Software GmbH</t>
   </si>
@@ -692,6 +692,9 @@
     <t>Mindestens die URLs 
 factoryprovider.com, github.com,strato.com,azurewebsites.net
 müssen erreichbar sein.</t>
+  </si>
+  <si>
+    <t>IE auf Server nicht gut benutzbar</t>
   </si>
 </sst>
 </file>
@@ -34086,12 +34089,12 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N1120"/>
+  <dimension ref="A1:N1121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H33" sqref="H33"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35146,12 +35149,14 @@
       <c r="A50" s="102"/>
       <c r="B50" s="94"/>
       <c r="C50" s="143" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="D50" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="144"/>
+      <c r="E50" s="144" t="s">
+        <v>185</v>
+      </c>
       <c r="F50" s="143"/>
       <c r="G50" s="145"/>
       <c r="H50" s="44" t="s">
@@ -35165,17 +35170,17 @@
     </row>
     <row r="51" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="102"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="46" t="s">
-        <v>176</v>
+      <c r="B51" s="94"/>
+      <c r="C51" s="143" t="s">
+        <v>182</v>
       </c>
-      <c r="D51" s="97" t="s">
+      <c r="D51" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="97"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="47" t="s">
+      <c r="E51" s="144"/>
+      <c r="F51" s="143"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="44" t="s">
         <v>49</v>
       </c>
       <c r="J51" s="105"/>
@@ -35186,13 +35191,19 @@
     </row>
     <row r="52" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="102"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="97"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="47" t="s">
+        <v>49</v>
+      </c>
       <c r="J52" s="105"/>
       <c r="K52" s="105"/>
       <c r="L52" s="105"/>
@@ -35207,11 +35218,12 @@
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="45"/>
-      <c r="I53" s="105"/>
+      <c r="H53" s="45"/>
       <c r="J53" s="105"/>
       <c r="K53" s="105"/>
       <c r="L53" s="105"/>
       <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
     </row>
     <row r="54" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="102"/>
@@ -35269,11 +35281,9 @@
       <c r="L57" s="105"/>
       <c r="M57" s="105"/>
     </row>
-    <row r="58" spans="1:14" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="102"/>
-      <c r="B58" s="120" t="s">
-        <v>54</v>
-      </c>
+      <c r="B58" s="119"/>
       <c r="C58" s="38"/>
       <c r="D58" s="108"/>
       <c r="E58" s="38"/>
@@ -35285,13 +35295,15 @@
       <c r="L58" s="105"/>
       <c r="M58" s="105"/>
     </row>
-    <row r="59" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="102"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="B59" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
       <c r="G59" s="45"/>
       <c r="I59" s="105"/>
       <c r="J59" s="105"/>
@@ -35301,19 +35313,11 @@
     </row>
     <row r="60" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="102"/>
-      <c r="B60" s="121" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" s="109"/>
-      <c r="E60" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="55" t="s">
-        <v>57</v>
-      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="45"/>
       <c r="I60" s="105"/>
       <c r="J60" s="105"/>
@@ -35323,18 +35327,18 @@
     </row>
     <row r="61" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="102"/>
-      <c r="B61" s="93" t="s">
-        <v>58</v>
+      <c r="B61" s="121" t="s">
+        <v>36</v>
       </c>
-      <c r="C61" s="48" t="s">
-        <v>59</v>
+      <c r="C61" s="54" t="s">
+        <v>55</v>
       </c>
-      <c r="D61" s="110"/>
-      <c r="E61" s="48" t="s">
-        <v>60</v>
+      <c r="D61" s="109"/>
+      <c r="E61" s="54" t="s">
+        <v>56</v>
       </c>
-      <c r="F61" s="49" t="s">
-        <v>61</v>
+      <c r="F61" s="55" t="s">
+        <v>57</v>
       </c>
       <c r="G61" s="45"/>
       <c r="I61" s="105"/>
@@ -35345,13 +35349,19 @@
     </row>
     <row r="62" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="102"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="50" t="s">
-        <v>62</v>
+      <c r="B62" s="93" t="s">
+        <v>58</v>
       </c>
-      <c r="D62" s="111"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="51"/>
+      <c r="C62" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="110"/>
+      <c r="E62" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>61</v>
+      </c>
       <c r="G62" s="45"/>
       <c r="I62" s="105"/>
       <c r="J62" s="105"/>
@@ -35363,13 +35373,11 @@
       <c r="A63" s="102"/>
       <c r="B63" s="94"/>
       <c r="C63" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="111"/>
       <c r="E63" s="50"/>
-      <c r="F63" s="51" t="s">
-        <v>64</v>
-      </c>
+      <c r="F63" s="51"/>
       <c r="G63" s="45"/>
       <c r="I63" s="105"/>
       <c r="J63" s="105"/>
@@ -35381,12 +35389,12 @@
       <c r="A64" s="102"/>
       <c r="B64" s="94"/>
       <c r="C64" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D64" s="111"/>
       <c r="E64" s="50"/>
       <c r="F64" s="51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G64" s="45"/>
       <c r="I64" s="105"/>
@@ -35397,13 +35405,15 @@
     </row>
     <row r="65" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="102"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="56" t="s">
-        <v>67</v>
+      <c r="B65" s="94"/>
+      <c r="C65" s="50" t="s">
+        <v>65</v>
       </c>
-      <c r="D65" s="112"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="57"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="G65" s="45"/>
       <c r="I65" s="105"/>
       <c r="J65" s="105"/>
@@ -35411,21 +35421,15 @@
       <c r="L65" s="105"/>
       <c r="M65" s="105"/>
     </row>
-    <row r="66" spans="1:13" s="39" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="102"/>
-      <c r="B66" s="91" t="s">
-        <v>68</v>
+      <c r="B66" s="95"/>
+      <c r="C66" s="56" t="s">
+        <v>67</v>
       </c>
-      <c r="C66" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="113"/>
-      <c r="E66" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="70" t="s">
-        <v>88</v>
-      </c>
+      <c r="D66" s="112"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="45"/>
       <c r="I66" s="105"/>
       <c r="J66" s="105"/>
@@ -35433,18 +35437,20 @@
       <c r="L66" s="105"/>
       <c r="M66" s="105"/>
     </row>
-    <row r="67" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="39" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A67" s="102"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="64" t="s">
-        <v>71</v>
+      <c r="B67" s="91" t="s">
+        <v>68</v>
       </c>
-      <c r="D67" s="114"/>
-      <c r="E67" s="64" t="s">
-        <v>71</v>
+      <c r="C67" s="63" t="s">
+        <v>69</v>
       </c>
-      <c r="F67" s="65" t="s">
-        <v>72</v>
+      <c r="D67" s="113"/>
+      <c r="E67" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="70" t="s">
+        <v>88</v>
       </c>
       <c r="G67" s="45"/>
       <c r="I67" s="105"/>
@@ -35455,18 +35461,16 @@
     </row>
     <row r="68" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="102"/>
-      <c r="B68" s="93" t="s">
-        <v>73</v>
+      <c r="B68" s="92"/>
+      <c r="C68" s="64" t="s">
+        <v>71</v>
       </c>
-      <c r="C68" s="60" t="s">
-        <v>74</v>
+      <c r="D68" s="114"/>
+      <c r="E68" s="64" t="s">
+        <v>71</v>
       </c>
-      <c r="D68" s="115"/>
-      <c r="E68" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="61" t="s">
-        <v>76</v>
+      <c r="F68" s="65" t="s">
+        <v>72</v>
       </c>
       <c r="G68" s="45"/>
       <c r="I68" s="105"/>
@@ -35477,14 +35481,18 @@
     </row>
     <row r="69" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="102"/>
-      <c r="B69" s="95"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="112"/>
-      <c r="E69" s="58" t="s">
-        <v>77</v>
+      <c r="B69" s="93" t="s">
+        <v>73</v>
       </c>
-      <c r="F69" s="59" t="s">
-        <v>78</v>
+      <c r="C69" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="115"/>
+      <c r="E69" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>76</v>
       </c>
       <c r="G69" s="45"/>
       <c r="I69" s="105"/>
@@ -35495,18 +35503,14 @@
     </row>
     <row r="70" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="102"/>
-      <c r="B70" s="69" t="s">
-        <v>79</v>
+      <c r="B70" s="95"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="58" t="s">
+        <v>77</v>
       </c>
-      <c r="C70" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" s="116"/>
-      <c r="E70" s="67">
-        <v>2013</v>
-      </c>
-      <c r="F70" s="68" t="s">
-        <v>81</v>
+      <c r="F70" s="59" t="s">
+        <v>78</v>
       </c>
       <c r="G70" s="45"/>
       <c r="I70" s="105"/>
@@ -35517,18 +35521,18 @@
     </row>
     <row r="71" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="102"/>
-      <c r="B71" s="93" t="s">
-        <v>82</v>
+      <c r="B71" s="69" t="s">
+        <v>79</v>
       </c>
-      <c r="C71" s="48" t="s">
-        <v>83</v>
+      <c r="C71" s="66" t="s">
+        <v>80</v>
       </c>
-      <c r="D71" s="110"/>
-      <c r="E71" s="48" t="s">
-        <v>84</v>
+      <c r="D71" s="116"/>
+      <c r="E71" s="67">
+        <v>2013</v>
       </c>
-      <c r="F71" s="49" t="s">
-        <v>85</v>
+      <c r="F71" s="68" t="s">
+        <v>81</v>
       </c>
       <c r="G71" s="45"/>
       <c r="I71" s="105"/>
@@ -35537,18 +35541,20 @@
       <c r="L71" s="105"/>
       <c r="M71" s="105"/>
     </row>
-    <row r="72" spans="1:13" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="102"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="50" t="s">
-        <v>86</v>
+      <c r="B72" s="93" t="s">
+        <v>82</v>
       </c>
-      <c r="D72" s="111"/>
-      <c r="E72" s="50" t="s">
-        <v>86</v>
+      <c r="C72" s="48" t="s">
+        <v>83</v>
       </c>
-      <c r="F72" s="52" t="s">
-        <v>89</v>
+      <c r="D72" s="110"/>
+      <c r="E72" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="G72" s="45"/>
       <c r="I72" s="105"/>
@@ -35557,15 +35563,19 @@
       <c r="L72" s="105"/>
       <c r="M72" s="105"/>
     </row>
-    <row r="73" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="102"/>
       <c r="B73" s="94"/>
       <c r="C73" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" s="111"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="51"/>
+      <c r="E73" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="52" t="s">
+        <v>89</v>
+      </c>
       <c r="G73" s="45"/>
       <c r="I73" s="105"/>
       <c r="J73" s="105"/>
@@ -35573,17 +35583,15 @@
       <c r="L73" s="105"/>
       <c r="M73" s="105"/>
     </row>
-    <row r="74" spans="1:13" s="39" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="102"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="62" t="s">
-        <v>71</v>
+      <c r="B74" s="94"/>
+      <c r="C74" s="50" t="s">
+        <v>87</v>
       </c>
-      <c r="D74" s="117"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="53" t="s">
-        <v>90</v>
-      </c>
+      <c r="D74" s="111"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="51"/>
       <c r="G74" s="45"/>
       <c r="I74" s="105"/>
       <c r="J74" s="105"/>
@@ -35591,13 +35599,17 @@
       <c r="L74" s="105"/>
       <c r="M74" s="105"/>
     </row>
-    <row r="75" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="39" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A75" s="102"/>
-      <c r="B75" s="119"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="108"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="117"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="G75" s="45"/>
       <c r="I75" s="105"/>
       <c r="J75" s="105"/>
@@ -36571,19 +36583,19 @@
       <c r="L144" s="105"/>
       <c r="M144" s="105"/>
     </row>
-    <row r="145" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="99"/>
+    <row r="145" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="102"/>
       <c r="B145" s="119"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="103"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="41"/>
-      <c r="I145" s="104"/>
-      <c r="J145" s="104"/>
-      <c r="K145" s="104"/>
-      <c r="L145" s="104"/>
-      <c r="M145" s="104"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="108"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="38"/>
+      <c r="G145" s="45"/>
+      <c r="I145" s="105"/>
+      <c r="J145" s="105"/>
+      <c r="K145" s="105"/>
+      <c r="L145" s="105"/>
+      <c r="M145" s="105"/>
     </row>
     <row r="146" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="99"/>
@@ -38251,10 +38263,19 @@
       <c r="L264" s="104"/>
       <c r="M264" s="104"/>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H265" s="1"/>
-      <c r="I265" s="103"/>
-      <c r="N265" s="1"/>
+    <row r="265" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="99"/>
+      <c r="B265" s="119"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="103"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="41"/>
+      <c r="I265" s="104"/>
+      <c r="J265" s="104"/>
+      <c r="K265" s="104"/>
+      <c r="L265" s="104"/>
+      <c r="M265" s="104"/>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H266" s="1"/>
@@ -42530,6 +42551,11 @@
       <c r="H1120" s="1"/>
       <c r="I1120" s="103"/>
       <c r="N1120" s="1"/>
+    </row>
+    <row r="1121" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H1121" s="1"/>
+      <c r="I1121" s="103"/>
+      <c r="N1121" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H11:H14 H16:H20 H39:H40 H42:H46 H9 H22:H28 H30:H33">
@@ -42540,7 +42566,7 @@
       <formula>$A$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H50">
+  <conditionalFormatting sqref="H48:H51">
     <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>$A$11</formula>
     </cfRule>
@@ -42580,7 +42606,7 @@
       <formula>$A$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H52">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$A$11</formula>
     </cfRule>
@@ -42589,10 +42615,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H9 H11:H51" xr:uid="{38080977-4269-4EAA-AF58-F25EAE9C07B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H9 H11:H52" xr:uid="{38080977-4269-4EAA-AF58-F25EAE9C07B6}">
       <formula1>$L$7:$L$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D9 D11:D51" xr:uid="{3B8CE9F0-680B-4E0A-B694-A1F2EA07B84E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D9 D11:D52" xr:uid="{3B8CE9F0-680B-4E0A-B694-A1F2EA07B84E}">
       <formula1>$J$7:$J$10</formula1>
     </dataValidation>
   </dataValidations>
